--- a/BalanceSheet/MMC_bal.xlsx
+++ b/BalanceSheet/MMC_bal.xlsx
@@ -4531,7 +4531,7 @@
         <v>14392000000.0</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>13069000000.0</v>
+        <v>11143000000.0</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>10216000000.0</v>
@@ -4658,7 +4658,7 @@
         <v>15872000000.0</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>14224000000.0</v>
+        <v>12298000000.0</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>11429000000.0</v>
